--- a/biology/Botanique/Tetrameristaceae/Tetrameristaceae.xlsx
+++ b/biology/Botanique/Tetrameristaceae/Tetrameristaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tetrameristaceae (les Tétraméristacées en français) sont une famille de plantes à fleurs dicotylédones qui comprend 3 espèces réparties en 3 genres.
 Ce sont des arbres des régions tropicales, à feuilles alternes et à inflorescences en ombelles, originaires de Malaisie (Tetramerista) et d'Amérique du Sud (Pentamerista).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Tetramerista, composé des mots grecs τετρα / tétra, quatre et μέρος / meros, partie, se référant aux fleurs à quatre parties de ce genre. 
 Les deux autres genres de cette famille, Pelliciera et Pentamerista, sont pentamères (en cinq parties).
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] situe cette famille dans l'ordre des Ericales et propose d'y inclure, optionnellement, la famille des Pelliciéracées.
-En classification phylogénétique APG III (2009)[2], qui n'a jamais recours à des familles optionnelles, cette famille est reconnue et inclut la famille Pellicieraceae, et donc les espèces du genre Pelliciera qui y étaient précédemment placées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) situe cette famille dans l'ordre des Ericales et propose d'y inclure, optionnellement, la famille des Pelliciéracées.
+En classification phylogénétique APG III (2009), qui n'a jamais recours à des familles optionnelles, cette famille est reconnue et inclut la famille Pellicieraceae, et donc les espèces du genre Pelliciera qui y étaient précédemment placées.
 </t>
         </is>
       </c>
@@ -576,13 +592,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016)[3] et NCBI  (11 décembre 2016)[4] (Plus conforme à APGIII puisqu'il incorpore le genre Pelliciera anciennement dans Pellicieraceae) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016) et NCBI  (11 décembre 2016) (Plus conforme à APGIII puisqu'il incorpore le genre Pelliciera anciennement dans Pellicieraceae) :
 Pelliciera (en)
 Pentamerista (pt)
 Tetramerista (pt)
-Selon DELTA Angio           (11 décembre 2016)[5] :
+Selon DELTA Angio           (11 décembre 2016) :
 Pentamerista
 Tetramerista</t>
         </is>
@@ -612,9 +630,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (4 ottobre 2023)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (4 ottobre 2023) :
 genre Pelliciera
 Pelliciera rhizophorae
 genre Pentamerista
